--- a/Xen Jakaria/To Do List.xlsx
+++ b/Xen Jakaria/To Do List.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Work_List" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Work_List!$A$1:$A$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -79,10 +82,19 @@
     <t>Ask Samiul Vai for Inception Report:Conduct Initial Discussion on Database Handling</t>
   </si>
   <si>
-    <t>24/1/2027</t>
-  </si>
-  <si>
-    <t>Ask Shamma Vai and Zakir Vai to Lunch</t>
+    <t>25/1/2023</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>CEIP Counterpart Meeting</t>
+  </si>
+  <si>
+    <t>30/5/2021</t>
+  </si>
+  <si>
+    <t>Ibas form filup</t>
   </si>
 </sst>
 </file>
@@ -90,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,29 +159,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,171 +470,169 @@
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3</v>
-      </c>
-    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A7">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="25/1/2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Completed,Pending"</formula1>
@@ -654,147 +659,147 @@
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
         <v>0.5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.625</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>3</v>
       </c>
     </row>

--- a/Xen Jakaria/To Do List.xlsx
+++ b/Xen Jakaria/To Do List.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Work_List!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Work_List!$A$1:$A$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -91,10 +91,19 @@
     <t>CEIP Counterpart Meeting</t>
   </si>
   <si>
-    <t>30/5/2021</t>
-  </si>
-  <si>
-    <t>Ibas form filup</t>
+    <t>29/1/2021</t>
+  </si>
+  <si>
+    <t>Send Boque to New JRC Membr</t>
+  </si>
+  <si>
+    <t>Ibas form fillup</t>
+  </si>
+  <si>
+    <t>Discuss Raihan about Home Loan</t>
+  </si>
+  <si>
+    <t>Appointment in Velore Christian Hospital</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,11 +164,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +211,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +519,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -498,7 +542,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -535,31 +579,31 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -570,19 +614,19 @@
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7">
-        <v>3</v>
+      <c r="F5" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>0.5</v>
@@ -591,42 +635,55 @@
         <v>20</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A7">
+  <autoFilter ref="A1:A6">
     <filterColumn colId="0">
       <filters>
         <filter val="25/1/2023"/>

--- a/Xen Jakaria/To Do List.xlsx
+++ b/Xen Jakaria/To Do List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>Appointment in Velore Christian Hospital</t>
+  </si>
+  <si>
+    <t>31/1/2021</t>
+  </si>
+  <si>
+    <t>To meet Shaon of RIMES about Voting App</t>
+  </si>
+  <si>
+    <t>To Talk Tapash About CAD Operator</t>
+  </si>
+  <si>
+    <t>To Check Bearing Capacity for 4 Pending Regulator</t>
+  </si>
+  <si>
+    <t>To Takeover Computer From CEIP</t>
+  </si>
+  <si>
+    <t>To Complete Design of Panguchi DPP bagerhat</t>
   </si>
 </sst>
 </file>
@@ -503,10 +521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,6 +666,9 @@
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -659,6 +680,9 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -670,6 +694,9 @@
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -680,6 +707,75 @@
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/To Do List.xlsx
+++ b/Xen Jakaria/To Do List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>To Complete Design of Panguchi DPP bagerhat</t>
+  </si>
+  <si>
+    <t>To Telephone Kader About Condition of Motaher Sir</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +779,14 @@
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/To Do List.xlsx
+++ b/Xen Jakaria/To Do List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -118,13 +118,10 @@
     <t>To Check Bearing Capacity for 4 Pending Regulator</t>
   </si>
   <si>
-    <t>To Takeover Computer From CEIP</t>
-  </si>
-  <si>
     <t>To Complete Design of Panguchi DPP bagerhat</t>
   </si>
   <si>
-    <t>To Telephone Kader About Condition of Motaher Sir</t>
+    <t>To Check Data Send by Amirul Islam</t>
   </si>
 </sst>
 </file>
@@ -215,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +238,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,8 +526,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,6 +736,9 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E12" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -760,8 +763,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
+      <c r="A15" s="1">
+        <v>44229</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>31</v>
@@ -771,8 +774,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
+      <c r="A16" s="1">
+        <v>44229</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>32</v>
@@ -781,12 +784,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/To Do List.xlsx
+++ b/Xen Jakaria/To Do List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -91,9 +91,6 @@
     <t>CEIP Counterpart Meeting</t>
   </si>
   <si>
-    <t>29/1/2021</t>
-  </si>
-  <si>
     <t>Send Boque to New JRC Membr</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>Appointment in Velore Christian Hospital</t>
   </si>
   <si>
-    <t>31/1/2021</t>
-  </si>
-  <si>
     <t>To meet Shaon of RIMES about Voting App</t>
   </si>
   <si>
@@ -121,7 +115,25 @@
     <t>To Complete Design of Panguchi DPP bagerhat</t>
   </si>
   <si>
-    <t>To Check Data Send by Amirul Islam</t>
+    <t>To Check Data Send by Amirul Islam Sir</t>
+  </si>
+  <si>
+    <t>Submission of Revised Aplication for Medical Leave</t>
+  </si>
+  <si>
+    <t>15/2/2021</t>
+  </si>
+  <si>
+    <t>29/1/2023</t>
+  </si>
+  <si>
+    <t>31/1/2023</t>
+  </si>
+  <si>
+    <t>Zoom Meeting About Panguchi DPP</t>
+  </si>
+  <si>
+    <t>15/2/2023</t>
   </si>
 </sst>
 </file>
@@ -148,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -175,17 +187,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -206,13 +207,35 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,19 +251,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,10 +548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -563,7 +587,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -600,7 +624,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -615,12 +639,12 @@
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -635,12 +659,12 @@
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -655,142 +679,192 @@
       <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+      <c r="A9" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>44229</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44229</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
+      <c r="D18" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
